--- a/biology/Médecine/Esmolol/Esmolol.xlsx
+++ b/biology/Médecine/Esmolol/Esmolol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'esmolol est un antagoniste cardiosélectif des récepteurs bêta 1 injectable[1],[2]. Il possède une durée d'action très courte, rapide et ne possède aucune activité sympathomimétique aux doses thérapeutiques.
-C'est un antiarythmique de classe II[3]. L'esmolol diminue la force et la vitesse des contractions cardiaques, il a donc un effet chronotrope négatif et un effet inotrope négatif. C'est un antagoniste des récepteurs bêta-adrénergiques du système nerveux sympathique. L'esmolol empêche l'action de deux substances naturelles : l'adrénaline et la noradrénaline qui sont les agonistes naturelles des récepteurs adrénergiques bêta1[4].
-Il a été breveté en 1980 et approuvé pour un usage médical en 1987[5].
+L'esmolol est un antagoniste cardiosélectif des récepteurs bêta 1 injectable,. Il possède une durée d'action très courte, rapide et ne possède aucune activité sympathomimétique aux doses thérapeutiques.
+C'est un antiarythmique de classe II. L'esmolol diminue la force et la vitesse des contractions cardiaques, il a donc un effet chronotrope négatif et un effet inotrope négatif. C'est un antagoniste des récepteurs bêta-adrénergiques du système nerveux sympathique. L'esmolol empêche l'action de deux substances naturelles : l'adrénaline et la noradrénaline qui sont les agonistes naturelles des récepteurs adrénergiques bêta1.
+Il a été breveté en 1980 et approuvé pour un usage médical en 1987.
 </t>
         </is>
       </c>
